--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/BC/20/seed3/result_data_KNN.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/BC/20/seed3/result_data_KNN.xlsx
@@ -491,7 +491,7 @@
         <v>8.199999999999999</v>
       </c>
       <c r="C4" t="n">
-        <v>-12.31</v>
+        <v>-12.377</v>
       </c>
       <c r="D4" t="n">
         <v>-8.23</v>
@@ -544,7 +544,7 @@
         <v>-21.27</v>
       </c>
       <c r="B8" t="n">
-        <v>5.502000000000001</v>
+        <v>5.912</v>
       </c>
       <c r="C8" t="n">
         <v>-14.64</v>
@@ -572,7 +572,7 @@
         <v>-22.54</v>
       </c>
       <c r="B10" t="n">
-        <v>5.504</v>
+        <v>6.148</v>
       </c>
       <c r="C10" t="n">
         <v>-12.45</v>
@@ -589,7 +589,7 @@
         <v>3.8</v>
       </c>
       <c r="C11" t="n">
-        <v>-13.012</v>
+        <v>-12.266</v>
       </c>
       <c r="D11" t="n">
         <v>-8.220000000000001</v>
@@ -600,10 +600,10 @@
         <v>-21.67</v>
       </c>
       <c r="B12" t="n">
-        <v>5.35</v>
+        <v>5.258</v>
       </c>
       <c r="C12" t="n">
-        <v>-11.598</v>
+        <v>-10.95</v>
       </c>
       <c r="D12" t="n">
         <v>-6.85</v>
@@ -645,7 +645,7 @@
         <v>5.32</v>
       </c>
       <c r="C15" t="n">
-        <v>-12.772</v>
+        <v>-13.364</v>
       </c>
       <c r="D15" t="n">
         <v>-10.04</v>
@@ -673,7 +673,7 @@
         <v>3.89</v>
       </c>
       <c r="C17" t="n">
-        <v>-13.656</v>
+        <v>-13.267</v>
       </c>
       <c r="D17" t="n">
         <v>-7.82</v>
@@ -684,7 +684,7 @@
         <v>-23.4</v>
       </c>
       <c r="B18" t="n">
-        <v>5.862</v>
+        <v>5.529999999999999</v>
       </c>
       <c r="C18" t="n">
         <v>-15.14</v>
@@ -782,7 +782,7 @@
         <v>-21.51</v>
       </c>
       <c r="B25" t="n">
-        <v>5.947999999999999</v>
+        <v>5.482</v>
       </c>
       <c r="C25" t="n">
         <v>-11.07</v>
@@ -799,7 +799,7 @@
         <v>6.56</v>
       </c>
       <c r="C26" t="n">
-        <v>-12.804</v>
+        <v>-13.15</v>
       </c>
       <c r="D26" t="n">
         <v>-9.31</v>
@@ -813,7 +813,7 @@
         <v>5.54</v>
       </c>
       <c r="C27" t="n">
-        <v>-13.012</v>
+        <v>-13.383</v>
       </c>
       <c r="D27" t="n">
         <v>-8.550000000000001</v>
@@ -827,7 +827,7 @@
         <v>5.47</v>
       </c>
       <c r="C28" t="n">
-        <v>-13.022</v>
+        <v>-12.77</v>
       </c>
       <c r="D28" t="n">
         <v>-7.75</v>
@@ -883,7 +883,7 @@
         <v>3.16</v>
       </c>
       <c r="C32" t="n">
-        <v>-13.464</v>
+        <v>-12.954</v>
       </c>
       <c r="D32" t="n">
         <v>-8.69</v>
@@ -950,10 +950,10 @@
         <v>-19.97</v>
       </c>
       <c r="B37" t="n">
-        <v>8.65</v>
+        <v>8.190999999999999</v>
       </c>
       <c r="C37" t="n">
-        <v>-11.718</v>
+        <v>-12.055</v>
       </c>
       <c r="D37" t="n">
         <v>-7.88</v>
@@ -1009,7 +1009,7 @@
         <v>8.92</v>
       </c>
       <c r="C41" t="n">
-        <v>-11.272</v>
+        <v>-12.375</v>
       </c>
       <c r="D41" t="n">
         <v>-8.720000000000001</v>
@@ -1093,7 +1093,7 @@
         <v>6.74</v>
       </c>
       <c r="C47" t="n">
-        <v>-12.876</v>
+        <v>-12.605</v>
       </c>
       <c r="D47" t="n">
         <v>-8.5</v>
@@ -1149,7 +1149,7 @@
         <v>4.98</v>
       </c>
       <c r="C51" t="n">
-        <v>-11.474</v>
+        <v>-11.371</v>
       </c>
       <c r="D51" t="n">
         <v>-7.18</v>
@@ -1202,7 +1202,7 @@
         <v>-24</v>
       </c>
       <c r="B55" t="n">
-        <v>4.962000000000001</v>
+        <v>4.864999999999999</v>
       </c>
       <c r="C55" t="n">
         <v>-15.79</v>
@@ -1345,7 +1345,7 @@
         <v>6.69</v>
       </c>
       <c r="C65" t="n">
-        <v>-12.976</v>
+        <v>-12.166</v>
       </c>
       <c r="D65" t="n">
         <v>-7.07</v>
@@ -1384,7 +1384,7 @@
         <v>-21.44</v>
       </c>
       <c r="B68" t="n">
-        <v>4.712000000000001</v>
+        <v>4.755</v>
       </c>
       <c r="C68" t="n">
         <v>-9.98</v>
@@ -1457,7 +1457,7 @@
         <v>10.24</v>
       </c>
       <c r="C73" t="n">
-        <v>-11.864</v>
+        <v>-12.344</v>
       </c>
       <c r="D73" t="n">
         <v>-6.42</v>
@@ -1510,7 +1510,7 @@
         <v>-19.89</v>
       </c>
       <c r="B77" t="n">
-        <v>6.082000000000001</v>
+        <v>6.055999999999999</v>
       </c>
       <c r="C77" t="n">
         <v>-9.57</v>
@@ -1524,7 +1524,7 @@
         <v>-20.31</v>
       </c>
       <c r="B78" t="n">
-        <v>8.122</v>
+        <v>7.45</v>
       </c>
       <c r="C78" t="n">
         <v>-13.33</v>
@@ -1538,7 +1538,7 @@
         <v>-20.57</v>
       </c>
       <c r="B79" t="n">
-        <v>6.268000000000001</v>
+        <v>5.566</v>
       </c>
       <c r="C79" t="n">
         <v>-9.779999999999999</v>
@@ -1552,7 +1552,7 @@
         <v>-20.43</v>
       </c>
       <c r="B80" t="n">
-        <v>8.166</v>
+        <v>7.581999999999999</v>
       </c>
       <c r="C80" t="n">
         <v>-12.35</v>
@@ -1566,7 +1566,7 @@
         <v>-22.03</v>
       </c>
       <c r="B81" t="n">
-        <v>5.529999999999999</v>
+        <v>5.983</v>
       </c>
       <c r="C81" t="n">
         <v>-11.36</v>
@@ -1580,7 +1580,7 @@
         <v>-22.09</v>
       </c>
       <c r="B82" t="n">
-        <v>5.724</v>
+        <v>5.621</v>
       </c>
       <c r="C82" t="n">
         <v>-14.08</v>
@@ -1608,10 +1608,10 @@
         <v>-22.05</v>
       </c>
       <c r="B84" t="n">
-        <v>6.374000000000001</v>
+        <v>5.823</v>
       </c>
       <c r="C84" t="n">
-        <v>-13.214</v>
+        <v>-13.055</v>
       </c>
       <c r="D84" t="n">
         <v>-8.34</v>
@@ -1625,7 +1625,7 @@
         <v>4.31</v>
       </c>
       <c r="C85" t="n">
-        <v>-11.118</v>
+        <v>-12.527</v>
       </c>
       <c r="D85" t="n">
         <v>-7.87</v>
@@ -1681,7 +1681,7 @@
         <v>5.51</v>
       </c>
       <c r="C89" t="n">
-        <v>-13.446</v>
+        <v>-13.483</v>
       </c>
       <c r="D89" t="n">
         <v>-8.140000000000001</v>
@@ -1737,7 +1737,7 @@
         <v>4.28</v>
       </c>
       <c r="C93" t="n">
-        <v>-10.394</v>
+        <v>-10.438</v>
       </c>
       <c r="D93" t="n">
         <v>-5.79</v>
@@ -1765,7 +1765,7 @@
         <v>7.55</v>
       </c>
       <c r="C95" t="n">
-        <v>-12.124</v>
+        <v>-12.451</v>
       </c>
       <c r="D95" t="n">
         <v>-6.1</v>
@@ -1807,7 +1807,7 @@
         <v>5.8</v>
       </c>
       <c r="C98" t="n">
-        <v>-14.496</v>
+        <v>-13.276</v>
       </c>
       <c r="D98" t="n">
         <v>-8.529999999999999</v>
@@ -1821,7 +1821,7 @@
         <v>5.08</v>
       </c>
       <c r="C99" t="n">
-        <v>-11.162</v>
+        <v>-11.696</v>
       </c>
       <c r="D99" t="n">
         <v>-7.59</v>
@@ -1846,10 +1846,10 @@
         <v>-21.4</v>
       </c>
       <c r="B101" t="n">
-        <v>4.758</v>
+        <v>6.214</v>
       </c>
       <c r="C101" t="n">
-        <v>-13.84</v>
+        <v>-12.715</v>
       </c>
       <c r="D101" t="n">
         <v>-7.98</v>
@@ -1860,10 +1860,10 @@
         <v>-20.62</v>
       </c>
       <c r="B102" t="n">
-        <v>6.266</v>
+        <v>5.893</v>
       </c>
       <c r="C102" t="n">
-        <v>-12.402</v>
+        <v>-12.611</v>
       </c>
       <c r="D102" t="n">
         <v>-9.24</v>
